--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V244"/>
+  <dimension ref="A1:V250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.39</v>
+        <v>2.22</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,48 +9888,48 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.38</v>
+        <v>2.73</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
+          <t>07/05/2023 06:52</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>03/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
           <t>07/05/2023 06:41</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="O103" t="inlineStr">
+      <c r="R103" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S103" t="inlineStr">
         <is>
           <t>03/05/2023 12:12</t>
         </is>
       </c>
-      <c r="P103" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>07/05/2023 06:41</t>
-        </is>
-      </c>
-      <c r="R103" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>03/05/2023 12:12</t>
-        </is>
-      </c>
       <c r="T103" t="n">
-        <v>8.31</v>
+        <v>2.86</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,63 +9965,63 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:54</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.48</v>
+        <v>2.64</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G105" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Yokohama FC</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Kashima Antlers</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
       <c r="J105" t="n">
-        <v>2.78</v>
+        <v>1.39</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.34</v>
+        <v>5.05</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.26</v>
+        <v>5.27</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:54</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.64</v>
+        <v>7.97</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.79</v>
+        <v>8.31</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I230" t="n">
         <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>3.84</v>
+        <v>3.03</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>4.46</v>
+        <v>3.09</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:58</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,32 +21588,32 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4.07</v>
+        <v>3.35</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
+          <t>02/09/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>26/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
           <t>02/09/2023 11:59</t>
         </is>
       </c>
-      <c r="R230" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S230" t="inlineStr">
-        <is>
-          <t>26/08/2023 11:12</t>
-        </is>
-      </c>
-      <c r="T230" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U230" t="inlineStr">
-        <is>
-          <t>02/09/2023 11:59</t>
-        </is>
-      </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I231" t="n">
         <v>2</v>
       </c>
       <c r="J231" t="n">
-        <v>3.03</v>
+        <v>3.84</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,39 +21664,39 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>3.09</v>
+        <v>4.46</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
+          <t>02/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>26/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
           <t>02/09/2023 11:59</t>
         </is>
       </c>
-      <c r="N231" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="O231" t="inlineStr">
+      <c r="R231" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S231" t="inlineStr">
         <is>
           <t>26/08/2023 11:12</t>
         </is>
       </c>
-      <c r="P231" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q231" t="inlineStr">
-        <is>
-          <t>02/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R231" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S231" t="inlineStr">
-        <is>
-          <t>26/08/2023 11:12</t>
-        </is>
-      </c>
       <c r="T231" t="n">
-        <v>2.47</v>
+        <v>1.79</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
         </is>
       </c>
     </row>
@@ -22193,22 +22193,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -22216,15 +22216,15 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:28</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>3.98</v>
+        <v>5.81</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -22232,15 +22232,15 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3.8</v>
+        <v>5.12</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="R237" t="n">
-        <v>5.66</v>
+        <v>7.23</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22248,16 +22248,16 @@
         </is>
       </c>
       <c r="T237" t="n">
-        <v>5.3</v>
+        <v>5.03</v>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:28</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>5.81</v>
+        <v>3.98</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>5.12</v>
+        <v>3.8</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>7.23</v>
+        <v>5.66</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>5.03</v>
+        <v>5.3</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
         </is>
       </c>
     </row>
@@ -22902,6 +22902,558 @@
       <c r="V244" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-albirex-niigata/I7TK4Af5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45192.29166666666</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>3</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Yokohama FC</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>23/09/2023 06:35</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>23/09/2023 06:35</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T245" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>23/09/2023 06:35</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-yokohama-fc/QDjnLVvn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45192.33333333334</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>3</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>15/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>23/09/2023 07:55</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>15/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>23/09/2023 07:55</t>
+        </is>
+      </c>
+      <c r="R246" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>15/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T246" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>23/09/2023 07:59</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-sagan-tosu/EZMT2lPH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>23/09/2023 08:59</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>23/09/2023 08:59</t>
+        </is>
+      </c>
+      <c r="R247" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="T247" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>23/09/2023 08:59</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-hokkaido-consadole-sapporo/Kl5kKkfh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>3</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R248" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T248" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-avispa-fukuoka/MaQy1SgU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R249" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="T249" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sanfrecce-hiroshima/bu4gJ99b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:13</t>
+        </is>
+      </c>
+      <c r="T250" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V250"/>
+  <dimension ref="A1:V253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.48</v>
+        <v>2.22</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/05/2023 08:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>07/05/2023 06:51</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>5.02</v>
+        <v>3.39</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/05/2023 08:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.95</v>
+        <v>3.23</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>07/05/2023 06:41</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>03/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>07/05/2023 06:52</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>03/05/2023 08:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>07/05/2023 06:52</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kyoto/CAQszvYG/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.73</v>
+        <v>1.38</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.39</v>
+        <v>5.05</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.23</v>
+        <v>5.27</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.48</v>
+        <v>7.97</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.86</v>
+        <v>8.31</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 08:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:51</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>5.05</v>
+        <v>5.02</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 08:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>5.27</v>
+        <v>4.95</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>7.97</v>
+        <v>5.84</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 08:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>8.31</v>
+        <v>5.46</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kyoto/CAQszvYG/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,48 +22492,48 @@
         </is>
       </c>
       <c r="L240" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
         <v>3.73</v>
       </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:59</t>
-        </is>
-      </c>
-      <c r="N240" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P240" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q240" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R240" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S240" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T240" t="n">
-        <v>2.35</v>
-      </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:56</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
         </is>
       </c>
     </row>
@@ -22561,22 +22561,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
       <c r="J241" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -22584,15 +22584,15 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1.65</v>
+        <v>3.73</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>4.34</v>
+        <v>3.2</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -22600,15 +22600,15 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4.49</v>
+        <v>2.98</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:58</t>
+          <t>16/09/2023 11:57</t>
         </is>
       </c>
       <c r="R241" t="n">
-        <v>4.87</v>
+        <v>2.64</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -22616,16 +22616,16 @@
         </is>
       </c>
       <c r="T241" t="n">
-        <v>4.92</v>
+        <v>2.35</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:55</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
         </is>
       </c>
     </row>
@@ -22653,22 +22653,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>3.58</v>
+        <v>4.34</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>3.63</v>
+        <v>4.49</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         </is>
       </c>
       <c r="R242" t="n">
-        <v>3.8</v>
+        <v>4.87</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>3.73</v>
+        <v>4.92</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:55</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
         </is>
       </c>
     </row>
@@ -23454,6 +23454,282 @@
       <c r="V250" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45193.33333333334</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>17/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>24/09/2023 07:55</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>17/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>24/09/2023 07:55</t>
+        </is>
+      </c>
+      <c r="R251" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>17/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T251" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>24/09/2023 07:55</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-yokohama-f-marinos/8dMX18vO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45193.375</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>2</v>
+      </c>
+      <c r="J252" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>24/09/2023 08:59</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>24/09/2023 08:55</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>24/09/2023 08:55</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kawasaki-frontale/nNirMBPu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>3</v>
+      </c>
+      <c r="J253" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:56</t>
+        </is>
+      </c>
+      <c r="R253" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T253" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:56</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-urawa-reds/t4gbITO4/</t>
         </is>
       </c>
     </row>
